--- a/CombinedData/MelanomaIL2_CellTypes.xlsx
+++ b/CombinedData/MelanomaIL2_CellTypes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\CombinedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B5FC29F-1177-4FC4-ADB8-05D8C7D12C23}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A144F16A-2630-4617-ACC3-C7747D77F6F6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Complex" sheetId="2" r:id="rId2"/>
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="98">
   <si>
     <t>Marker_combination</t>
   </si>
@@ -125,9 +125,6 @@
     <t>With_OR_Without</t>
   </si>
   <si>
-    <t>CD45,CD14,CD163,CD68</t>
-  </si>
-  <si>
     <t>NEGATIVES</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>S100B</t>
   </si>
   <si>
-    <t>Adipocyte or dendritic cell (Langerhans)</t>
-  </si>
-  <si>
     <t>CD56,S100B</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>Tconv8</t>
   </si>
   <si>
-    <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-</t>
-  </si>
-  <si>
     <t>CD8-,FOXP3-,CD20-,CD56-,SOX10-</t>
   </si>
   <si>
@@ -215,9 +206,6 @@
     <t>CD4-,CD20-,CD56-,SOX10-</t>
   </si>
   <si>
-    <t>CD3-,CD8-,FOXP3-,CD56-,SOX10-</t>
-  </si>
-  <si>
     <t>CD4-,CD8-,FOXP3-,CD20-,SOX10-</t>
   </si>
   <si>
@@ -269,9 +257,6 @@
     <t>CD3-,CD4-,CD8-,FOXP3-,CD20-</t>
   </si>
   <si>
-    <t>CD45,CD14,CD163,CD68,CD56</t>
-  </si>
-  <si>
     <t>Other leukocyte</t>
   </si>
   <si>
@@ -281,18 +266,12 @@
     <t>CD68,MHCII</t>
   </si>
   <si>
-    <t>CD163,CD14,CD4</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>CD163,MHCII</t>
   </si>
   <si>
-    <t>CD68,CD14,CD4</t>
-  </si>
-  <si>
     <t>CD68</t>
   </si>
   <si>
@@ -312,6 +291,39 @@
   </si>
   <si>
     <t>Natural killer cell overall</t>
+  </si>
+  <si>
+    <t>CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,S100B-</t>
+  </si>
+  <si>
+    <t>CD45-,CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,S100B-</t>
+  </si>
+  <si>
+    <t>CD45-,CD3-,CD4-,CD8-,FOXP3-,CD20-,CD56-,CD14-,CD163-,CD68-,SOX10-,PCK26-</t>
+  </si>
+  <si>
+    <t>Adipocyte or Langerhans cell</t>
+  </si>
+  <si>
+    <t>CD45,CD14,CD4,S100B,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,S100B,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,CD14,CD163,CD68,S100B,PCK26</t>
+  </si>
+  <si>
+    <t>CD3-,CD4-,CD8-,FOXP3-,CD56-,SOX10-</t>
+  </si>
+  <si>
+    <t>CD45,CD14,CD163,CD68,PCK26</t>
+  </si>
+  <si>
+    <t>CD45,CD14,CD163,CD68,S100B,PCK26,CD56</t>
+  </si>
+  <si>
+    <t>CD45,PCK26</t>
   </si>
 </sst>
 </file>
@@ -753,10 +765,10 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -764,42 +776,45 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -807,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -819,10 +834,10 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,10 +845,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -842,33 +857,33 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,10 +891,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -888,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -899,10 +914,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -911,10 +926,10 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -922,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -934,10 +949,10 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -945,10 +960,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -957,102 +972,102 @@
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1060,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -1083,7 +1098,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
         <v>29</v>
@@ -1094,30 +1109,33 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1167,19 +1185,19 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1196,22 +1214,22 @@
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1253,8 @@
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1255,102 +1274,102 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
